--- a/TestData/Unified_TestData.xlsx
+++ b/TestData/Unified_TestData.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28130" windowHeight="12350" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="UnifiedTests" sheetId="1" r:id="rId1"/>
-    <sheet name="UnifiedProfile" sheetId="2" r:id="rId2"/>
-    <sheet name="TestCases" sheetId="3" r:id="rId3"/>
+    <sheet name="Subscriptions" sheetId="5" r:id="rId2"/>
+    <sheet name="UnifiedProfile" sheetId="2" r:id="rId3"/>
+    <sheet name="Login" sheetId="4" r:id="rId4"/>
+    <sheet name="TestCases" sheetId="3" r:id="rId5"/>
+    <sheet name="Doubts" sheetId="6" r:id="rId6"/>
+    <sheet name="UnifiedSignInUp" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="78">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -48,22 +52,82 @@
     <t>N</t>
   </si>
   <si>
+    <t xml:space="preserve">9986181939 </t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>https://staging.devinfinitylearn.in/</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pass123</t>
+  </si>
+  <si>
+    <t>https://student.infinitylearn.com/signin?page=signin</t>
+  </si>
+  <si>
+    <t>EmailID</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>ParentName</t>
+  </si>
+  <si>
+    <t>ParentNumber</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>NewPhoneNumber</t>
+  </si>
+  <si>
+    <t>Test@gmail.com</t>
+  </si>
+  <si>
+    <t>Madhapur</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>500081</t>
+  </si>
+  <si>
+    <t>9000090000</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
     <t>7981828533</t>
   </si>
   <si>
-    <t>Pass123</t>
-  </si>
-  <si>
-    <t>https://student.infinitylearn.com/signin?page=signin</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>https://student.devinfinitylearn.in</t>
+  </si>
+  <si>
+    <t>543322</t>
+  </si>
+  <si>
+    <t>93804087593</t>
   </si>
   <si>
     <t>TestCase_Id</t>
@@ -166,6 +230,30 @@
   </si>
   <si>
     <t>Verify Board</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Passwordd</t>
+  </si>
+  <si>
+    <t>ConfrmPasswordd</t>
+  </si>
+  <si>
+    <t>9347192918</t>
+  </si>
+  <si>
+    <t>https://doubts.devinfinitylearn.in/</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -173,12 +261,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,15 +277,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -217,9 +305,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,14 +330,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,7 +346,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +354,14 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -272,15 +376,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,13 +392,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -310,7 +399,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,6 +419,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -346,121 +442,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,43 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,20 +626,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -555,18 +651,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -586,16 +676,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,8 +717,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,8 +726,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,170 +758,192 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="50" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -849,23 +976,25 @@
     <cellStyle name="Bad" xfId="29" builtinId="27"/>
     <cellStyle name="Neutral" xfId="30" builtinId="28"/>
     <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Hyperlink 2" xfId="50"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1137,18 +1266,18 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10.2818181818182" customWidth="1"/>
-    <col min="2" max="2" width="15.2818181818182" customWidth="1"/>
-    <col min="3" max="3" width="12.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="18.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="14.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="55.4545454545455" customWidth="1"/>
-    <col min="7" max="7" width="11.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="10.2636363636364" customWidth="1"/>
+    <col min="2" max="2" width="15.2636363636364" customWidth="1"/>
+    <col min="3" max="3" width="12.5272727272727" customWidth="1"/>
+    <col min="4" max="4" width="18.6" customWidth="1"/>
+    <col min="5" max="5" width="14.8" customWidth="1"/>
+    <col min="6" max="6" width="55.4636363636364" customWidth="1"/>
+    <col min="7" max="7" width="11.3363636363636" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1179,22 +1308,22 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
@@ -1205,23 +1334,23 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4">
-        <v>9133434966</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
+      <c r="D3" s="3">
+        <v>8688858154</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -1231,7 +1360,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://staging.devinfinitylearn.in/"/>
+    <hyperlink ref="E3" r:id="rId2" display="Pass123"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1242,19 +1376,18 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="14.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="12.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="13.9090909090909" customWidth="1"/>
-    <col min="5" max="5" width="8.81818181818182" customWidth="1"/>
-    <col min="6" max="6" width="51.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="10.3636363636364" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="14.2636363636364" customWidth="1"/>
+    <col min="3" max="3" width="12.4636363636364" customWidth="1"/>
+    <col min="4" max="4" width="16.2" customWidth="1"/>
+    <col min="5" max="5" width="12.4" customWidth="1"/>
+    <col min="6" max="6" width="49.2636363636364" customWidth="1"/>
+    <col min="7" max="7" width="12.4636363636364" customWidth="1"/>
+    <col min="8" max="8" width="15.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1284,49 +1417,49 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4">
-        <v>9133434966</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
+      <c r="D3" s="3">
+        <v>8688858154</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -1336,7 +1469,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://staging.devinfinitylearn.in/"/>
+    <hyperlink ref="E3" r:id="rId2" display="Pass123"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1344,197 +1482,743 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="10.9272727272727" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="3" width="12.2636363636364" customWidth="1"/>
+    <col min="4" max="4" width="13.9272727272727" customWidth="1"/>
+    <col min="5" max="5" width="8.8" customWidth="1"/>
+    <col min="6" max="6" width="51.2636363636364" customWidth="1"/>
+    <col min="7" max="7" width="10.3363636363636" customWidth="1"/>
+    <col min="8" max="8" width="12.9272727272727" customWidth="1"/>
+    <col min="9" max="9" width="16.5272727272727" customWidth="1"/>
+    <col min="10" max="10" width="17.3363636363636" customWidth="1"/>
+    <col min="11" max="11" width="10.2" customWidth="1"/>
+    <col min="12" max="12" width="10.7272727272727" customWidth="1"/>
+    <col min="13" max="13" width="10.1363636363636" customWidth="1"/>
+    <col min="14" max="14" width="13.4" customWidth="1"/>
+    <col min="15" max="15" width="15.6" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3">
+        <v>8688858154</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2">
+        <v>7676767676</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3">
+        <v>7676767676</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" display="https://student.devinfinitylearn.in"/>
+    <hyperlink ref="I2" r:id="rId2" display="Test@gmail.com"/>
+    <hyperlink ref="E2" r:id="rId3" display="Pass123"/>
+    <hyperlink ref="O2" r:id="rId4" display="Test@123"/>
+    <hyperlink ref="O3" r:id="rId4" display="Test@123"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="16.3363636363636" customWidth="1"/>
+    <col min="2" max="2" width="16.9272727272727" customWidth="1"/>
+    <col min="3" max="3" width="17.5272727272727" customWidth="1"/>
+    <col min="4" max="4" width="24.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="15.2636363636364" customWidth="1"/>
+    <col min="6" max="6" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3">
+        <v>8688858154</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>9133434966</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" display="https://student.devinfinitylearn.in"/>
+    <hyperlink ref="E2" r:id="rId2" display="Pass123"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="F18 D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="35.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="13.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="15.2636363636364" customWidth="1"/>
+    <col min="2" max="2" width="35.9272727272727" customWidth="1"/>
+    <col min="3" max="3" width="13.0636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="2" max="2" width="13.9272727272727" customWidth="1"/>
+    <col min="3" max="3" width="13.5272727272727" customWidth="1"/>
+    <col min="4" max="4" width="17.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
+    <col min="9" max="9" width="16.4" customWidth="1"/>
+    <col min="10" max="10" width="11.0636363636364" customWidth="1"/>
+    <col min="11" max="11" width="15.5272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="6">
+        <v>123456</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>9133434966</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" display="https://student.devinfinitylearn.in"/>
+    <hyperlink ref="F2" r:id="rId2" display="https://doubts.devinfinitylearn.in/"/>
+    <hyperlink ref="I2" r:id="rId3" display="abc@gmail.com"/>
+    <hyperlink ref="I3" r:id="rId4" display="test@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="10.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="16.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="15.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="18.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="44.1818181818182" customWidth="1"/>
+    <col min="7" max="7" width="14.1818181818182" customWidth="1"/>
+    <col min="8" max="8" width="11.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8688858154</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://staging.devinfinitylearn.in/"/>
+    <hyperlink ref="E3" r:id="rId2" display="Pass123"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>